--- a/code/ch7-data-input-output/reports/TPS_report.xlsx
+++ b/code/ch7-data-input-output/reports/TPS_report.xlsx
@@ -1524,9 +1524,6 @@
       <c r="F3" s="1">
         <v>510270</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2"/>
